--- a/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="81">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -688,12 +688,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>43004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>6</v>
@@ -794,10 +794,10 @@
         <v>10000001</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -806,94 +806,48 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
+    <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D4" s="13">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="13">
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="5">
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -901,46 +855,46 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D5" s="13">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L5" s="13">
-        <v>2</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="I5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="8">
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -949,7 +903,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -958,7 +912,7 @@
         <v>43004</v>
       </c>
       <c r="D6" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="12" t="b">
         <v>1</v>
@@ -982,10 +936,10 @@
         <v>10000001</v>
       </c>
       <c r="L6" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N6" s="13">
         <v>0</v>
@@ -996,7 +950,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -1005,7 +959,7 @@
         <v>43004</v>
       </c>
       <c r="D7" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="12" t="b">
         <v>1</v>
@@ -1029,10 +983,10 @@
         <v>10000001</v>
       </c>
       <c r="L7" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N7" s="13">
         <v>0</v>
@@ -1043,7 +997,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -1052,7 +1006,7 @@
         <v>43004</v>
       </c>
       <c r="D8" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="12" t="b">
         <v>1</v>
@@ -1076,10 +1030,10 @@
         <v>10000001</v>
       </c>
       <c r="L8" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N8" s="13">
         <v>0</v>
@@ -1089,46 +1043,46 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="A9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="I9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L9" s="13">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="13">
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1136,46 +1090,46 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D10" s="5">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L10" s="5">
-        <v>2</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="A10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D10" s="13">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L10" s="13">
+        <v>5</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="13">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1184,7 +1138,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1193,7 +1147,7 @@
         <v>43004</v>
       </c>
       <c r="D11" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>1</v>
@@ -1205,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>6</v>
@@ -1217,10 +1171,10 @@
         <v>10000001</v>
       </c>
       <c r="L11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
@@ -1231,7 +1185,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -1240,7 +1194,7 @@
         <v>43004</v>
       </c>
       <c r="D12" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
@@ -1264,10 +1218,10 @@
         <v>10000001</v>
       </c>
       <c r="L12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1278,7 +1232,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -1287,7 +1241,7 @@
         <v>43004</v>
       </c>
       <c r="D13" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
@@ -1311,10 +1265,10 @@
         <v>10000001</v>
       </c>
       <c r="L13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="N13" s="5">
         <v>0</v>
@@ -1324,46 +1278,46 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D14" s="8">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="5">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -1371,46 +1325,46 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D15" s="8">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L15" s="8">
-        <v>2</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="5">
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1419,7 +1373,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -1428,7 +1382,7 @@
         <v>43004</v>
       </c>
       <c r="D16" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7" t="b">
         <v>1</v>
@@ -1440,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>6</v>
@@ -1452,10 +1406,10 @@
         <v>10000001</v>
       </c>
       <c r="L16" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
@@ -1466,7 +1420,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -1475,7 +1429,7 @@
         <v>43004</v>
       </c>
       <c r="D17" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7" t="b">
         <v>1</v>
@@ -1487,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>6</v>
@@ -1499,10 +1453,10 @@
         <v>10000001</v>
       </c>
       <c r="L17" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N17" s="8">
         <v>0</v>
@@ -1513,7 +1467,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1522,7 +1476,7 @@
         <v>43004</v>
       </c>
       <c r="D18" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7" t="b">
         <v>1</v>
@@ -1546,10 +1500,10 @@
         <v>10000001</v>
       </c>
       <c r="L18" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
@@ -1558,8 +1512,102 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L19" s="8">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D20" s="8">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,10 +1619,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1639,7 @@
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="93.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="99.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>

--- a/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="81">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -688,12 +688,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>43004</v>
       </c>
       <c r="D2" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>10000001</v>
       </c>
       <c r="L2" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -809,7 +809,7 @@
     <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>43004</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>6</v>
@@ -842,10 +842,10 @@
         <v>10000001</v>
       </c>
       <c r="L4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -854,56 +854,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="5" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -912,7 +866,7 @@
         <v>43004</v>
       </c>
       <c r="D6" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="12" t="b">
         <v>1</v>
@@ -924,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>6</v>
@@ -936,10 +890,10 @@
         <v>10000001</v>
       </c>
       <c r="L6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N6" s="13">
         <v>0</v>
@@ -948,244 +902,106 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4</v>
-      </c>
-      <c r="E7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L7" s="13">
-        <v>2</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D8" s="13">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L8" s="13">
-        <v>3</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L8" s="5">
+        <v>25</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="5">
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D9" s="13">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L9" s="13">
-        <v>4</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="9" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D10" s="13">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L10" s="13">
-        <v>5</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="13">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5">
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="11" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -1194,20 +1010,20 @@
         <v>43004</v>
       </c>
       <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="I12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1218,10 +1034,10 @@
         <v>10000001</v>
       </c>
       <c r="L12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -1231,46 +1047,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L13" s="5">
-        <v>3</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -1278,46 +1094,46 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D14" s="5">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L14" s="5">
-        <v>4</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="A14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="13">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -1325,46 +1141,46 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="A15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L15" s="13">
+        <v>2</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="13">
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1372,46 +1188,46 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D16" s="8">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="A16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D16" s="13">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L16" s="13">
+        <v>3</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="13">
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -1419,46 +1235,46 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D17" s="8">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L17" s="8">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="A17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D17" s="13">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L17" s="13">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="13">
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -1466,46 +1282,46 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D18" s="8">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L18" s="8">
-        <v>3</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="A18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D18" s="13">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L18" s="13">
+        <v>5</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="13">
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -1513,46 +1329,46 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D19" s="8">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L19" s="8">
-        <v>4</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="5">
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -1560,54 +1376,430 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D20" s="8">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L20" s="8">
-        <v>5</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="5">
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L22" s="5">
+        <v>4</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L23" s="5">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D24" s="8">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D25" s="8">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L25" s="8">
+        <v>2</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D26" s="8">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L26" s="8">
+        <v>3</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D27" s="8">
+        <v>16</v>
+      </c>
+      <c r="E27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L27" s="8">
+        <v>4</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D28" s="8">
+        <v>17</v>
+      </c>
+      <c r="E28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L28" s="8">
+        <v>5</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,13 +687,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D4" s="5">
         <v>9</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D6" s="13">
         <v>4</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="10">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="10">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="11">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="14">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D14" s="13">
         <v>3</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="14">
-        <v>43004</v>
+        <v>43102</v>
       </c>
       <c r="D15" s="13">
         <v>4</v>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="14">
-        <v>43004</v>
+        <v>43103</v>
       </c>
       <c r="D16" s="13">
         <v>5</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="14">
-        <v>43004</v>
+        <v>43104</v>
       </c>
       <c r="D17" s="13">
         <v>6</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="14">
-        <v>43004</v>
+        <v>43105</v>
       </c>
       <c r="D18" s="13">
         <v>7</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="10">
-        <v>43004</v>
+        <v>43102</v>
       </c>
       <c r="D20" s="5">
         <v>9</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="10">
-        <v>43004</v>
+        <v>43103</v>
       </c>
       <c r="D21" s="5">
         <v>10</v>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="10">
-        <v>43004</v>
+        <v>43104</v>
       </c>
       <c r="D22" s="5">
         <v>11</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="10">
-        <v>43004</v>
+        <v>43105</v>
       </c>
       <c r="D23" s="5">
         <v>12</v>
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="11">
-        <v>43004</v>
+        <v>43101</v>
       </c>
       <c r="D24" s="8">
         <v>13</v>
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="11">
-        <v>43004</v>
+        <v>43102</v>
       </c>
       <c r="D25" s="8">
         <v>14</v>
@@ -1665,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11">
-        <v>43004</v>
+        <v>43103</v>
       </c>
       <c r="D26" s="8">
         <v>15</v>
@@ -1712,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="11">
-        <v>43004</v>
+        <v>43104</v>
       </c>
       <c r="D27" s="8">
         <v>16</v>
@@ -1759,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="11">
-        <v>43004</v>
+        <v>43105</v>
       </c>
       <c r="D28" s="8">
         <v>17</v>
@@ -1801,14 +1801,14 @@
     <row r="29" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -5137,7 +5137,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
@@ -693,7 +693,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -911,7 +911,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="10">
-        <v>43101</v>
+        <f ca="1">TODAY()</f>
+        <v>43214</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>

--- a/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_AAO.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" tabRatio="192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Full_Regression" sheetId="6" r:id="rId2"/>
+    <sheet name="Regression" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="C8" s="10">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43262</v>
       </c>
       <c r="D8" s="5">
         <v>12</v>
@@ -1810,12 +1810,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1926,52 +1926,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1992,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>6</v>
@@ -2007,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
@@ -2015,7 +1987,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -2036,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>6</v>
@@ -2059,7 +2031,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -2080,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>6</v>
@@ -2095,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -2103,7 +2075,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2124,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>6</v>
@@ -2147,7 +2119,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -2168,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>6</v>
@@ -2183,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5">
         <v>0</v>
@@ -2191,7 +2163,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -2212,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>6</v>
@@ -2235,7 +2207,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2256,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>6</v>
@@ -2271,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
@@ -2279,7 +2251,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -2300,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>6</v>
@@ -2323,7 +2295,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -2344,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>6</v>
@@ -2359,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
@@ -2367,7 +2339,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -2388,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>6</v>
@@ -2410,52 +2382,52 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -2476,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>6</v>
@@ -2499,7 +2471,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -2520,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>6</v>
@@ -2535,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N16" s="8">
         <v>0</v>
@@ -2543,7 +2515,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -2564,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>6</v>
@@ -2587,7 +2559,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -2608,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>6</v>
@@ -2623,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N18" s="8">
         <v>0</v>
@@ -2631,7 +2603,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
@@ -2652,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>6</v>
@@ -2675,7 +2647,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -2696,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>6</v>
@@ -2711,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N20" s="8">
         <v>0</v>
@@ -2719,7 +2691,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -2740,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>6</v>
@@ -2763,7 +2735,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
@@ -2784,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>6</v>
@@ -2799,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -2807,7 +2779,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
@@ -2828,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>6</v>
@@ -2851,7 +2823,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
@@ -2872,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>6</v>
@@ -2887,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -2895,7 +2867,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8">
         <v>2</v>
@@ -2916,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>6</v>
@@ -2938,52 +2910,52 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14">
-        <v>43004</v>
-      </c>
-      <c r="D26" s="13">
-        <v>3</v>
-      </c>
-      <c r="E26" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="15">
-        <v>10000001</v>
-      </c>
-      <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="13">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="13">
         <v>1</v>
@@ -3004,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>6</v>
@@ -3027,7 +2999,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="13">
         <v>1</v>
@@ -3036,7 +3008,7 @@
         <v>43004</v>
       </c>
       <c r="D28" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="12" t="b">
         <v>1</v>
@@ -3048,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>6</v>
@@ -3060,10 +3032,10 @@
         <v>10000001</v>
       </c>
       <c r="L28" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N28" s="13">
         <v>0</v>
@@ -3071,7 +3043,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
@@ -3092,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>6</v>
@@ -3115,7 +3087,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="13">
         <v>1</v>
@@ -3124,7 +3096,7 @@
         <v>43004</v>
       </c>
       <c r="D30" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="12" t="b">
         <v>1</v>
@@ -3136,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>6</v>
@@ -3148,10 +3120,10 @@
         <v>10000001</v>
       </c>
       <c r="L30" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N30" s="13">
         <v>0</v>
@@ -3159,7 +3131,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="13">
         <v>1</v>
@@ -3180,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>6</v>
@@ -3203,7 +3175,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="13">
         <v>1</v>
@@ -3212,7 +3184,7 @@
         <v>43004</v>
       </c>
       <c r="D32" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="12" t="b">
         <v>1</v>
@@ -3224,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>6</v>
@@ -3236,10 +3208,10 @@
         <v>10000001</v>
       </c>
       <c r="L32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N32" s="13">
         <v>0</v>
@@ -3247,7 +3219,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="13">
         <v>1</v>
@@ -3268,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>6</v>
@@ -3291,7 +3263,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="13">
         <v>1</v>
@@ -3300,7 +3272,7 @@
         <v>43004</v>
       </c>
       <c r="D34" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="12" t="b">
         <v>1</v>
@@ -3312,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>6</v>
@@ -3324,10 +3296,10 @@
         <v>10000001</v>
       </c>
       <c r="L34" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N34" s="13">
         <v>0</v>
@@ -3335,7 +3307,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
@@ -3356,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>6</v>
@@ -3378,52 +3350,52 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>43004</v>
-      </c>
-      <c r="D36" s="5">
-        <v>8</v>
-      </c>
-      <c r="E36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="L36" s="5">
-        <v>1</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="5">
+      <c r="A36" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D36" s="13">
+        <v>7</v>
+      </c>
+      <c r="E36" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="15">
+        <v>10000001</v>
+      </c>
+      <c r="L36" s="13">
+        <v>5</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -3444,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>6</v>
@@ -3467,7 +3439,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -3476,20 +3448,20 @@
         <v>43004</v>
       </c>
       <c r="D38" s="5">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="I38" s="4" t="s">
         <v>6</v>
       </c>
@@ -3500,10 +3472,10 @@
         <v>10000001</v>
       </c>
       <c r="L38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N38" s="5">
         <v>0</v>
@@ -3511,7 +3483,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -3532,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>6</v>
@@ -3555,7 +3527,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -3564,7 +3536,7 @@
         <v>43004</v>
       </c>
       <c r="D40" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>1</v>
@@ -3576,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>6</v>
@@ -3588,10 +3560,10 @@
         <v>10000001</v>
       </c>
       <c r="L40" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N40" s="5">
         <v>0</v>
@@ -3599,7 +3571,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -3620,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>6</v>
@@ -3643,7 +3615,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -3664,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>6</v>
@@ -3679,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
@@ -3687,7 +3659,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -3708,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>6</v>
@@ -3731,7 +3703,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -3740,7 +3712,7 @@
         <v>43004</v>
       </c>
       <c r="D44" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4" t="b">
         <v>1</v>
@@ -3752,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>6</v>
@@ -3764,10 +3736,10 @@
         <v>10000001</v>
       </c>
       <c r="L44" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N44" s="5">
         <v>0</v>
@@ -3775,7 +3747,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -3796,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>6</v>
@@ -3819,7 +3791,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -3840,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>6</v>
@@ -3855,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -3863,7 +3835,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -3884,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>6</v>
@@ -3907,7 +3879,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -3928,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>6</v>
@@ -3943,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
@@ -3951,7 +3923,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -3972,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>6</v>
@@ -3995,7 +3967,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -4004,7 +3976,7 @@
         <v>43004</v>
       </c>
       <c r="D50" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="4" t="b">
         <v>1</v>
@@ -4016,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>6</v>
@@ -4028,10 +4000,10 @@
         <v>10000001</v>
       </c>
       <c r="L50" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="N50" s="5">
         <v>0</v>
@@ -4039,7 +4011,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -4060,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>6</v>
@@ -4083,7 +4055,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4104,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>6</v>
@@ -4119,7 +4091,7 @@
         <v>5</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -4127,7 +4099,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -4148,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>6</v>
@@ -4171,7 +4143,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -4192,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>6</v>
@@ -4207,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N54" s="5">
         <v>0</v>
@@ -4215,7 +4187,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -4236,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>6</v>
@@ -4258,52 +4230,52 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="8">
-        <v>2</v>
-      </c>
-      <c r="C56" s="11">
-        <v>43004</v>
-      </c>
-      <c r="D56" s="8">
-        <v>13</v>
-      </c>
-      <c r="E56" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="L56" s="8">
-        <v>1</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N56" s="8">
+      <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>43004</v>
+      </c>
+      <c r="D56" s="5">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="L56" s="5">
+        <v>5</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N56" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="8">
         <v>2</v>
@@ -4324,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>6</v>
@@ -4347,7 +4319,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="8">
         <v>2</v>
@@ -4356,7 +4328,7 @@
         <v>43004</v>
       </c>
       <c r="D58" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="7" t="b">
         <v>1</v>
@@ -4368,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>6</v>
@@ -4380,10 +4352,10 @@
         <v>10000001</v>
       </c>
       <c r="L58" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N58" s="8">
         <v>0</v>
@@ -4391,7 +4363,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="8">
         <v>2</v>
@@ -4412,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>6</v>
@@ -4435,7 +4407,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="8">
         <v>2</v>
@@ -4444,7 +4416,7 @@
         <v>43004</v>
       </c>
       <c r="D60" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="7" t="b">
         <v>1</v>
@@ -4456,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>6</v>
@@ -4468,10 +4440,10 @@
         <v>10000001</v>
       </c>
       <c r="L60" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N60" s="8">
         <v>0</v>
@@ -4479,7 +4451,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="8">
         <v>2</v>
@@ -4500,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>6</v>
@@ -4523,7 +4495,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" s="8">
         <v>2</v>
@@ -4544,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>6</v>
@@ -4559,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N62" s="8">
         <v>0</v>
@@ -4567,7 +4539,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="8">
         <v>2</v>
@@ -4588,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>6</v>
@@ -4611,7 +4583,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="8">
         <v>2</v>
@@ -4620,7 +4592,7 @@
         <v>43004</v>
       </c>
       <c r="D64" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" s="7" t="b">
         <v>1</v>
@@ -4632,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>6</v>
@@ -4644,10 +4616,10 @@
         <v>10000001</v>
       </c>
       <c r="L64" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N64" s="8">
         <v>0</v>
@@ -4655,7 +4627,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="8">
         <v>2</v>
@@ -4676,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>6</v>
@@ -4699,7 +4671,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B66" s="8">
         <v>2</v>
@@ -4720,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>6</v>
@@ -4735,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N66" s="8">
         <v>0</v>
@@ -4743,7 +4715,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="8">
         <v>2</v>
@@ -4764,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>6</v>
@@ -4787,7 +4759,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B68" s="8">
         <v>2</v>
@@ -4808,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>6</v>
@@ -4823,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N68" s="8">
         <v>0</v>
@@ -4831,7 +4803,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="8">
         <v>2</v>
@@ -4852,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>6</v>
@@ -4875,7 +4847,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="8">
         <v>2</v>
@@ -4884,7 +4856,7 @@
         <v>43004</v>
       </c>
       <c r="D70" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" s="7" t="b">
         <v>1</v>
@@ -4896,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>6</v>
@@ -4908,10 +4880,10 @@
         <v>10000001</v>
       </c>
       <c r="L70" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N70" s="8">
         <v>0</v>
@@ -4919,7 +4891,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" s="8">
         <v>2</v>
@@ -4940,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>6</v>
@@ -4963,7 +4935,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B72" s="8">
         <v>2</v>
@@ -4984,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>6</v>
@@ -4999,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -5007,7 +4979,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B73" s="8">
         <v>2</v>
@@ -5028,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>6</v>
@@ -5051,7 +5023,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" s="8">
         <v>2</v>
@@ -5072,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>6</v>
@@ -5087,7 +5059,7 @@
         <v>5</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -5095,7 +5067,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" s="8">
         <v>2</v>
@@ -5116,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>6</v>
@@ -5134,6 +5106,50 @@
         <v>79</v>
       </c>
       <c r="N75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="11">
+        <v>43004</v>
+      </c>
+      <c r="D76" s="8">
+        <v>17</v>
+      </c>
+      <c r="E76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="L76" s="8">
+        <v>5</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N76" s="8">
         <v>0</v>
       </c>
     </row>
